--- a/PR BRODERS.xlsx
+++ b/PR BRODERS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1043200\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27BBD321-2C60-42C5-9916-C1F9712A2191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A372178D-05CA-4E37-AD7B-E90B364C6FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{32A79151-2A90-405C-82C6-76ED33C4D1EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -105,7 +105,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -299,32 +299,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,16 +316,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C6571E-1841-4115-9A0D-4C8CBA477064}">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.95"/>
@@ -679,589 +682,730 @@
     <col min="4" max="4" width="12.3046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.07421875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.07421875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="24.5" thickBot="1" x14ac:dyDescent="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" ht="24.5" thickBot="1" x14ac:dyDescent="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="16" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="AA1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" ht="24.5" thickBot="1" x14ac:dyDescent="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9" t="s">
+    <row r="2" spans="1:30" ht="24.5" thickBot="1" x14ac:dyDescent="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="17"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.95">
-      <c r="A3" s="11">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.95">
+      <c r="A3" s="3">
         <v>64978</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="4">
         <v>411</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="12">
-        <v>603728921</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>603728921</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
         <v>10000</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4">
         <v>270000</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="14">
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="6">
         <f t="shared" ref="Z3:Z12" si="0">SUM(P3+Q3+R3+S3+T3+U3+V3+W3+X3+Y3)</f>
         <v>270000</v>
       </c>
+      <c r="AA3" s="3">
+        <v>64978</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>411</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>603728921</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.95">
-      <c r="A4" s="11">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.95">
+      <c r="A4" s="3">
         <v>65017</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="4">
         <v>519</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="12">
-        <v>603728921</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4">
+        <v>603728921</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
         <v>10000</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4">
         <v>254000</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="14">
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="6">
         <f t="shared" si="0"/>
         <v>254000</v>
       </c>
+      <c r="AA4" s="3">
+        <v>65017</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>519</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>603728921</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.95">
-      <c r="A5" s="11">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.95">
+      <c r="A5" s="3">
         <v>65027</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="4">
         <v>546</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="12">
-        <v>603728921</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4">
+        <v>603728921</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
         <v>10000</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4">
         <v>260000</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="14">
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="6">
         <f t="shared" si="0"/>
         <v>260000</v>
       </c>
+      <c r="AA5" s="3">
+        <v>65027</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>546</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>603728921</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.95">
-      <c r="A6" s="11">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.95">
+      <c r="A6" s="3">
         <v>65032</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="4">
         <v>574</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12">
-        <v>603728921</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>603728921</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
         <v>10000</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4">
         <v>270000</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="14">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="6">
         <f t="shared" si="0"/>
         <v>270000</v>
       </c>
+      <c r="AA6" s="3">
+        <v>65032</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>574</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>603728921</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.95">
-      <c r="A7" s="11">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.95">
+      <c r="A7" s="3">
         <v>65068</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="4">
         <v>681</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12">
-        <v>603728921</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>603728921</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>1800</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="4">
         <v>6720</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="4">
         <v>1500</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4">
         <v>46800</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="4">
         <v>166320</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="4">
         <v>46500</v>
       </c>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="14">
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="6">
         <f t="shared" si="0"/>
         <v>259620</v>
       </c>
+      <c r="AA7" s="3">
+        <v>65068</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>681</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>603728921</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.95">
-      <c r="A8" s="11">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.95">
+      <c r="A8" s="3">
         <v>65076</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="4">
         <v>710</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="12">
-        <v>603728921</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4">
+        <v>603728921</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
         <v>1200</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4">
         <v>31200</v>
       </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="14">
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="6">
         <f t="shared" si="0"/>
         <v>31200</v>
       </c>
+      <c r="AA8" s="3">
+        <v>65076</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>710</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>603728921</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.95">
-      <c r="A9" s="11">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.95">
+      <c r="A9" s="3">
         <v>65086</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="4">
         <v>735</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="12">
-        <v>603728921</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4">
+        <v>603728921</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
         <v>4000</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="4">
         <v>3000</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4">
         <v>101600</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="4">
         <v>88500</v>
       </c>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="14">
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="6">
         <f t="shared" si="0"/>
         <v>190100</v>
       </c>
+      <c r="AA9" s="3">
+        <v>65086</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>735</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>603728921</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.95">
-      <c r="A10" s="11">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.95">
+      <c r="A10" s="3">
         <v>65058</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="4">
         <v>660</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="12">
-        <v>603728921</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4">
+        <v>603728921</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <v>10000</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4">
         <v>252500</v>
       </c>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="14">
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="6">
         <f t="shared" si="0"/>
         <v>252500</v>
       </c>
+      <c r="AA10" s="3">
+        <v>65058</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>660</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>603728921</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.95">
-      <c r="A11" s="11">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.95">
+      <c r="A11" s="3">
         <v>65043</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="4">
         <v>612</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="12">
-        <v>603728921</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4">
+        <v>603728921</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
         <v>10000</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4">
         <v>270000</v>
       </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="14">
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="6">
         <f t="shared" si="0"/>
         <v>270000</v>
       </c>
+      <c r="AA11" s="3">
+        <v>65043</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>612</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>603728921</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.95">
-      <c r="A12" s="11">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.95">
+      <c r="A12" s="3">
         <v>65022</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="4">
         <v>535</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="12">
-        <v>603728921</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4">
+        <v>603728921</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
         <v>7000</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="4">
         <v>3000</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12">
+      <c r="M12" s="4"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4">
         <v>177800</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="4">
         <v>96000</v>
       </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="14">
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="6">
         <f t="shared" si="0"/>
         <v>273800</v>
       </c>
+      <c r="AA12" s="3">
+        <v>65022</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>535</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>603728921</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="P1:Y1"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="A1:A2"/>
